--- a/Backlog Project Airline.xlsx
+++ b/Backlog Project Airline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2c3ed1c5052e5df/Desktop/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{481F5D39-848D-4C22-864B-E984FF53E1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A511A863-EE9C-447D-9762-E5CFA4F70288}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{481F5D39-848D-4C22-864B-E984FF53E1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66061EA4-78A7-49DF-80E7-0B12B6099A85}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anders Pedersen - Personal View" guid="{988818D5-2AEF-4A9A-A55E-18240173EC63}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="2"/>
+    <customWorkbookView name="Sam Burke - Personal View" guid="{AF9CDD9E-3CB3-EE48-8887-F1090B6AE042}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1440" windowHeight="741" activeSheetId="2"/>
     <customWorkbookView name="De La Cruz, Anthony - Personal View" guid="{F117AA09-D9DE-4D2E-A2DF-77AB3D7617C3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
-    <customWorkbookView name="Sam Burke - Personal View" guid="{AF9CDD9E-3CB3-EE48-8887-F1090B6AE042}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1440" windowHeight="741" activeSheetId="2"/>
-    <customWorkbookView name="Anders Pedersen - Personal View" guid="{988818D5-2AEF-4A9A-A55E-18240173EC63}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>What is this?</t>
   </si>
@@ -291,6 +291,54 @@
   </si>
   <si>
     <t>week 4</t>
+  </si>
+  <si>
+    <t>Updating Project Documentation</t>
+  </si>
+  <si>
+    <r>
+      <t>Ensure all project-related documentation is accurate, up-to-date, and reflects the current state of the airline reservation system. Documentation includes the project outline, user stories, sprint planning documents, backlog spreadsheet, system design diagrams, and Sprint Retrospective reports</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Project outline accurately describes the current scope and functionality.
+All sprint planning documents accurately represent completed tasks and remaining items.
+Backlog spreadsheet is updated to reflect current and future tasks.
+User stories and acceptance criteria clearly match the final functionality delivered.
+System diagrams (use case, activity diagrams, etc.) are revised to match the implemented system.
+The Sprint Retrospective Summary Report is complete and includes accurate reflections from all team members.
+Documentation is reviewed by at least two team members for accuracy and completeness.
+Documentation is finalized, approved, and uploaded to the shared repository.</t>
+  </si>
+  <si>
+    <t>Finalize the airline reservation system by ensuring that all pages are correctly linked, and CSS styles are uniformly applied across the website to provide a seamless user experience. Verify visual consistency, responsiveness, and navigational functionality throughout all pages including Home, Flights, Hotels, Car Rentals, About Us, and Checkout.</t>
+  </si>
+  <si>
+    <t>All navigation links between pages (Home, Flights, Hotels, Rentals, About Us, Checkout) function correctly.
+Common CSS stylesheet is applied uniformly across all pages, ensuring consistent color schemes, fonts, button styles, and layouts.
+Responsive design principles are adhered to, ensuring pages display correctly on various devices (desktop, tablet, mobile).
+All interactive elements (buttons, forms, navigation links) operate as expected.
+No broken links or navigation errors are present.
+Each page has been reviewed and approved by at least two team members.
+Finalized website has been successfully tested on at least two different browsers (e.g., Chrome, Firefox).
+Final code commits have been pushed to the team's GitHub repository and clearly labeled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizing Website - Linking Pages and Updating CSS Styles
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizing Website - Linking Pages and Updating CSS Styles </t>
   </si>
 </sst>
 </file>
@@ -1646,25 +1694,25 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -1717,43 +1765,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>22.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>20.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>18.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>17.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>15.428571428571425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>13.714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>11.999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>10.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>8.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>6.8571428571428568</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>5.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>3.4285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>1.7142857142857137</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2771,6 +2819,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A10:G32" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A10:G32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -3248,8 +3300,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F117AA09-D9DE-4D2E-A2DF-77AB3D7617C3}">
-      <selection activeCell="B15" sqref="B15"/>
+    <customSheetView guid="{988818D5-2AEF-4A9A-A55E-18240173EC63}" topLeftCell="A7">
+      <selection activeCell="B12" sqref="B12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait"/>
       <headerFooter alignWithMargins="0"/>
@@ -3260,8 +3312,8 @@
       <pageSetup orientation="portrait"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{988818D5-2AEF-4A9A-A55E-18240173EC63}" topLeftCell="A7">
-      <selection activeCell="B12" sqref="B12"/>
+    <customSheetView guid="{F117AA09-D9DE-4D2E-A2DF-77AB3D7617C3}">
+      <selection activeCell="B15" sqref="B15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait"/>
       <headerFooter alignWithMargins="0"/>
@@ -3283,8 +3335,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:EC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4128,12 +4180,28 @@
       <c r="EB15" s="59"/>
       <c r="EC15" s="59"/>
     </row>
-    <row r="16" spans="1:133" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:133" s="49" customFormat="1" ht="312" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>6</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
+      <c r="B16" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="49">
+        <v>6</v>
+      </c>
+      <c r="F16" s="49">
+        <v>1</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>62</v>
+      </c>
       <c r="H16" s="59"/>
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
@@ -4261,12 +4329,28 @@
       <c r="EB16" s="59"/>
       <c r="EC16" s="59"/>
     </row>
-    <row r="17" spans="1:133" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:133" s="49" customFormat="1" ht="312" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>7</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
+      <c r="B17" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="49">
+        <v>7</v>
+      </c>
+      <c r="F17" s="49">
+        <v>1</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>49</v>
+      </c>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
@@ -5045,26 +5129,26 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F117AA09-D9DE-4D2E-A2DF-77AB3D7617C3}" showAutoFilter="1">
-      <selection activeCell="B7" sqref="B7"/>
+    <customSheetView guid="{988818D5-2AEF-4A9A-A55E-18240173EC63}" showAutoFilter="1">
+      <selection activeCell="B43" sqref="B43"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:F1" xr:uid="{A645602E-FC08-4C37-9137-E4038357D82E}"/>
+      <autoFilter ref="B1:F1" xr:uid="{4DCDD882-648A-4330-AB76-D7F6E0B89612}"/>
     </customSheetView>
     <customSheetView guid="{AF9CDD9E-3CB3-EE48-8887-F1090B6AE042}" scale="150" showAutoFilter="1" topLeftCell="B36">
       <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:F1" xr:uid="{A1EA3651-06A8-4F76-B95F-79FEB125C308}"/>
+      <autoFilter ref="B1:F1" xr:uid="{D52BBD9C-12A6-4117-9358-4D751B77B954}"/>
     </customSheetView>
-    <customSheetView guid="{988818D5-2AEF-4A9A-A55E-18240173EC63}" showAutoFilter="1">
-      <selection activeCell="B43" sqref="B43"/>
+    <customSheetView guid="{F117AA09-D9DE-4D2E-A2DF-77AB3D7617C3}" showAutoFilter="1">
+      <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:F1" xr:uid="{3EB8CC66-B36C-4D26-8682-053CAA9F4D6F}"/>
+      <autoFilter ref="B1:F1" xr:uid="{3DDD7BDC-6A03-488C-87F4-A3CCAD3B1052}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -5084,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AAAAEB-B5F0-468C-BFDD-E9B5D3EFF0AD}">
   <dimension ref="A2:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5146,7 +5230,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="23">
-        <v>45788</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -5240,59 +5324,59 @@
       </c>
       <c r="F10" s="26">
         <f>E6</f>
-        <v>45788</v>
+        <v>45783</v>
       </c>
       <c r="G10" s="21">
         <f>F10+1</f>
-        <v>45789</v>
+        <v>45784</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" ref="H10:S10" si="0">G10+1</f>
-        <v>45790</v>
+        <v>45785</v>
       </c>
       <c r="I10" s="21">
         <f t="shared" si="0"/>
-        <v>45791</v>
+        <v>45786</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
-        <v>45792</v>
+        <v>45787</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="0"/>
-        <v>45793</v>
+        <v>45788</v>
       </c>
       <c r="L10" s="21">
         <f t="shared" si="0"/>
-        <v>45794</v>
+        <v>45789</v>
       </c>
       <c r="M10" s="21">
         <f t="shared" si="0"/>
-        <v>45795</v>
+        <v>45790</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="0"/>
-        <v>45796</v>
+        <v>45791</v>
       </c>
       <c r="O10" s="21">
         <f t="shared" si="0"/>
-        <v>45797</v>
+        <v>45792</v>
       </c>
       <c r="P10" s="21">
         <f t="shared" si="0"/>
-        <v>45798</v>
+        <v>45793</v>
       </c>
       <c r="Q10" s="21">
         <f t="shared" si="0"/>
-        <v>45799</v>
+        <v>45794</v>
       </c>
       <c r="R10" s="21">
         <f t="shared" si="0"/>
-        <v>45800</v>
+        <v>45795</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="0"/>
-        <v>45801</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="32" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
@@ -5309,7 +5393,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="27">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -5318,12 +5402,22 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="M11" s="31">
+        <v>1</v>
+      </c>
+      <c r="N11" s="31">
+        <v>1</v>
+      </c>
+      <c r="O11" s="31">
+        <v>1</v>
+      </c>
       <c r="P11" s="31"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="Q11" s="29">
+        <v>1</v>
+      </c>
+      <c r="R11" s="29">
+        <v>1</v>
+      </c>
       <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -5340,7 +5434,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="27">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -5348,7 +5442,9 @@
       <c r="I12" s="31"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="L12" s="29">
+        <v>3</v>
+      </c>
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
@@ -5371,7 +5467,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="27">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="29"/>
@@ -5380,7 +5476,9 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="31"/>
+      <c r="M13" s="31">
+        <v>3</v>
+      </c>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
@@ -5402,7 +5500,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="27">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="29"/>
@@ -5412,11 +5510,19 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="N14" s="29">
+        <v>1</v>
+      </c>
+      <c r="O14" s="29">
+        <v>1</v>
+      </c>
+      <c r="P14" s="29">
+        <v>1</v>
+      </c>
       <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
+      <c r="R14" s="29">
+        <v>1</v>
+      </c>
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -5433,7 +5539,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="27">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="29"/>
@@ -5443,21 +5549,37 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="N15" s="29">
+        <v>1</v>
+      </c>
+      <c r="O15" s="29">
+        <v>1</v>
+      </c>
+      <c r="P15" s="29">
+        <v>1</v>
+      </c>
       <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
+      <c r="R15" s="29">
+        <v>1</v>
+      </c>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="32" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>6</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="28">
+        <v>6</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="27">
+        <v>2</v>
+      </c>
       <c r="F16" s="31"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -5470,17 +5592,25 @@
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="R16" s="29">
+        <v>2</v>
+      </c>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>7</v>
       </c>
       <c r="B17" s="28"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2</v>
+      </c>
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -5493,7 +5623,9 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
+      <c r="R17" s="24">
+        <v>2</v>
+      </c>
       <c r="S17" s="24"/>
       <c r="T17" s="8" t="s">
         <v>38</v>
@@ -5551,7 +5683,7 @@
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="77">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F20" s="9" t="e">
         <f>IF(SUM(F11:F18)&gt;0,E20-SUM(F11:F18),NA())</f>
@@ -5577,33 +5709,33 @@
         <f>IF(SUM(K11:K18)&gt;0,E20-SUM(F11:K18),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="9" t="e">
+      <c r="L20" s="9">
         <f>IF(SUM(L11:L18)&gt;0,E20-SUM(F11:L18),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="9" t="e">
+        <v>21</v>
+      </c>
+      <c r="M20" s="9">
         <f>IF(SUM(M11:M18)&gt;0,L20-SUM(M11:M18),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="9" t="e">
+        <v>17</v>
+      </c>
+      <c r="N20" s="9">
         <f>IF(SUM(N11:N18)&gt;0,L20-SUM(M11:N18),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="9" t="e">
+        <v>14</v>
+      </c>
+      <c r="O20" s="9">
         <f>IF(SUM(O11:O18)&gt;0,M20-SUM(N11:O18),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="9" t="e">
+        <v>11</v>
+      </c>
+      <c r="P20" s="9">
         <f>IF(SUM(P11:P18)&gt;0,L20-SUM(M11:P18),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="9" t="e">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="9">
         <f>IF(SUM(Q11:Q18)&gt;0,L20-SUM(M11:Q18),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="9" t="e">
+        <v>8</v>
+      </c>
+      <c r="R20" s="9">
         <f>IF(SUM(R11:R18)&gt;0,L20-SUM(M11:R18),NA())</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="S20" s="9" t="e">
         <f>IF(SUM(S11:S18)&gt;0,L20-SUM(M11:S18),NA())</f>
@@ -5618,55 +5750,55 @@
       <c r="E21" s="78"/>
       <c r="F21" s="10">
         <f>E20-(E20/14)</f>
-        <v>65</v>
+        <v>22.285714285714285</v>
       </c>
       <c r="G21" s="10">
         <f>F21-(E20/14)</f>
-        <v>60</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="H21" s="10">
         <f>G21-(E20/14)</f>
-        <v>55</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="I21" s="10">
         <f>H21-(E20/14)</f>
-        <v>50</v>
+        <v>17.142857142857139</v>
       </c>
       <c r="J21" s="10">
         <f>I21-(E20/14)</f>
-        <v>45</v>
+        <v>15.428571428571425</v>
       </c>
       <c r="K21" s="10">
         <f>J21-(E20/14)</f>
-        <v>40</v>
+        <v>13.714285714285712</v>
       </c>
       <c r="L21" s="10">
         <f>K21-(E20/14)</f>
-        <v>35</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="M21" s="10">
         <f>L21-(E20/14)</f>
-        <v>30</v>
+        <v>10.285714285714285</v>
       </c>
       <c r="N21" s="10">
         <f>M21-(E20/14)</f>
-        <v>25</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="O21" s="10">
         <f>N21-(E20/14)</f>
-        <v>20</v>
+        <v>6.8571428571428568</v>
       </c>
       <c r="P21" s="10">
         <f>O21-(E20/14)</f>
-        <v>15</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="Q21" s="10">
         <f>P21-(E20/14)</f>
-        <v>10</v>
+        <v>3.4285714285714279</v>
       </c>
       <c r="R21" s="10">
         <f>Q21-(E20/14)</f>
-        <v>5</v>
+        <v>1.7142857142857137</v>
       </c>
       <c r="S21" s="10">
         <f>R21-(E20/14)</f>
@@ -5715,7 +5847,7 @@
       </c>
       <c r="L26" s="4">
         <f>SUM(E11:E19)</f>
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -5727,7 +5859,7 @@
       </c>
       <c r="S26" s="4">
         <f>SUM(L11:L19)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -6755,6 +6887,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CD5BF1D25B04C4DAFCC598A42891EA8" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45b73b173887e5427e1a7d1313c48df7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bbb67f6-bffc-474b-aafb-fa77ef9cf4e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d8638d06aff927da092ea6a13d6d28c" ns2:_="">
     <xsd:import namespace="2bbb67f6-bffc-474b-aafb-fa77ef9cf4e0"/>
@@ -6886,16 +7027,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE0C23A-5102-4081-835D-8A52FB2528A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554BC761-B369-43F7-8379-D7BE3B6A4E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6911,12 +7051,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE0C23A-5102-4081-835D-8A52FB2528A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>